--- a/한이음_프로보노/필요 내용(주석)/소매업태별_판매액_20210226213704.xlsx
+++ b/한이음_프로보노/필요 내용(주석)/소매업태별_판매액_20210226213704.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woojin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woojin\Desktop\BeverageProject\한이음_프로보노\필요 내용(주석)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="6440"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="11810"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="데이터" sheetId="1" r:id="rId4"/>
@@ -22,118 +22,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <x:si>
+    <x:t xml:space="preserve">　　　슈퍼마켓 및 잡화점</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　승용차 및 연료 소매점</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[년] 2015~2020  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계청,「서비스업동향조사」</x:t>
+  </x:si>
+  <x:si>
     <x:t>단위 : 백만원</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">　　　승용차 및 연료 소매점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계청,「서비스업동향조사」</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　슈퍼마켓 및 잡화점</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">[년] 2015~2020  </x:t>
+    <x:t>DT_1K31003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소매업태별 판매액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　전문소매점</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　무점포 소매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 자료다운일자</x:t>
   </x:si>
   <x:si>
     <x:t>최근 2개월 수치에는 잠정치(p)가 포함되어 있으며, 추후 수정될 수 있습니다.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">-매년 1월분 통계 공표(2월말 또는 3월초)시에는 연간보정으로 인해 최근 몇 개년 자료가 수정될 수 있습니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 출처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　면세점</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　편의점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경상금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　대형마트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 주석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 통계표명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　　　백화점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○ 조회기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020 p)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1K31003&amp;conn_path=I3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</x:t>
+  </x:si>
+  <x:si>
     <x:t>2021.02.26 21:37</x:t>
   </x:si>
   <x:si>
-    <x:t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1K31003&amp;conn_path=I3</x:t>
+    <x:t>백만원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통계표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t>업태별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계표</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백만원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DT_1K31003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소매업태별 판매액</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　전문소매점</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　무점포 소매</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">-매년 1월분 통계 공표(2월말 또는 3월초)시에는 연간보정으로 인해 최근 몇 개년 자료가 수정될 수 있습니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　백화점</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　대형마트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　면세점</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">　　　편의점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 출처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 주석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경상금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020 p)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 조회기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 통계표URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○ 자료다운일자</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -250,7 +250,10 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -298,7 +301,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -381,7 +383,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -416,7 +417,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -461,7 +461,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -505,7 +504,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -590,7 +588,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -611,7 +608,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -642,7 +638,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -953,279 +948,279 @@
   <x:dimension ref="A1:H12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:G8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.66796875" style="1" customWidth="1"/>
-    <x:col min="2" max="7" width="10.7421875" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="11.58203125" customWidth="1"/>
+    <x:col min="1" max="1" width="26.66796875" style="2" customWidth="1"/>
+    <x:col min="2" max="7" width="10.7421875" style="2" customWidth="1"/>
+    <x:col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A1" s="7" t="s">
+      <x:c r="A1" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A2" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A3" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B3" s="4">
+        <x:v>408317217</x:v>
+      </x:c>
+      <x:c r="C3" s="4">
+        <x:v>424353216</x:v>
+      </x:c>
+      <x:c r="D3" s="4">
+        <x:v>440288001</x:v>
+      </x:c>
+      <x:c r="E3" s="4">
+        <x:v>465004922</x:v>
+      </x:c>
+      <x:c r="F3" s="4">
+        <x:v>473161650</x:v>
+      </x:c>
+      <x:c r="G3" s="4">
+        <x:v>475219464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A4" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B4" s="4">
+        <x:v>29028920</x:v>
+      </x:c>
+      <x:c r="C4" s="4">
+        <x:v>29911411</x:v>
+      </x:c>
+      <x:c r="D4" s="4">
+        <x:v>29324217</x:v>
+      </x:c>
+      <x:c r="E4" s="4">
+        <x:v>29967537</x:v>
+      </x:c>
+      <x:c r="F4" s="4">
+        <x:v>30386424</x:v>
+      </x:c>
+      <x:c r="G4" s="4">
+        <x:v>27379576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A5" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="4">
+        <x:v>32777579</x:v>
+      </x:c>
+      <x:c r="C5" s="4">
+        <x:v>33234136</x:v>
+      </x:c>
+      <x:c r="D5" s="4">
+        <x:v>33798158</x:v>
+      </x:c>
+      <x:c r="E5" s="4">
+        <x:v>33453685</x:v>
+      </x:c>
+      <x:c r="F5" s="4">
+        <x:v>32424643</x:v>
+      </x:c>
+      <x:c r="G5" s="4">
+        <x:v>33777763</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A6" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B6" s="4">
+        <x:v>9198423</x:v>
+      </x:c>
+      <x:c r="C6" s="4">
+        <x:v>12275712</x:v>
+      </x:c>
+      <x:c r="D6" s="4">
+        <x:v>14465845</x:v>
+      </x:c>
+      <x:c r="E6" s="4">
+        <x:v>18960170</x:v>
+      </x:c>
+      <x:c r="F6" s="4">
+        <x:v>24858610</x:v>
+      </x:c>
+      <x:c r="G6" s="4">
+        <x:v>15505934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A7" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="4">
+        <x:v>43481224</x:v>
+      </x:c>
+      <x:c r="C7" s="4">
+        <x:v>44368228</x:v>
+      </x:c>
+      <x:c r="D7" s="4">
+        <x:v>45592914</x:v>
+      </x:c>
+      <x:c r="E7" s="4">
+        <x:v>46457102</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>44178237</x:v>
+      </x:c>
+      <x:c r="G7" s="4">
+        <x:v>46471587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A8" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B8" s="4">
+        <x:v>16455791</x:v>
+      </x:c>
+      <x:c r="C8" s="4">
+        <x:v>19481461</x:v>
+      </x:c>
+      <x:c r="D8" s="4">
+        <x:v>22237893</x:v>
+      </x:c>
+      <x:c r="E8" s="4">
+        <x:v>24406536</x:v>
+      </x:c>
+      <x:c r="F8" s="4">
+        <x:v>25691628</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>26522549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A9" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="4">
+        <x:v>91303768</x:v>
+      </x:c>
+      <x:c r="C9" s="4">
+        <x:v>90137665</x:v>
+      </x:c>
+      <x:c r="D9" s="4">
+        <x:v>94508088</x:v>
+      </x:c>
+      <x:c r="E9" s="4">
+        <x:v>101552456</x:v>
+      </x:c>
+      <x:c r="F9" s="4">
+        <x:v>100646290</x:v>
+      </x:c>
+      <x:c r="G9" s="4">
+        <x:v>104259430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="20" customHeight="1">
+      <x:c r="A10" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A2" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A3" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B3" s="3">
-        <x:v>408317217</x:v>
-      </x:c>
-      <x:c r="C3" s="3">
-        <x:v>424353216</x:v>
-      </x:c>
-      <x:c r="D3" s="3">
-        <x:v>440288001</x:v>
-      </x:c>
-      <x:c r="E3" s="3">
-        <x:v>465004922</x:v>
-      </x:c>
-      <x:c r="F3" s="3">
-        <x:v>473161650</x:v>
-      </x:c>
-      <x:c r="G3" s="3">
-        <x:v>475219464</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A4" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B4" s="3">
-        <x:v>29028920</x:v>
-      </x:c>
-      <x:c r="C4" s="3">
-        <x:v>29911411</x:v>
-      </x:c>
-      <x:c r="D4" s="3">
-        <x:v>29324217</x:v>
-      </x:c>
-      <x:c r="E4" s="3">
-        <x:v>29967537</x:v>
-      </x:c>
-      <x:c r="F4" s="3">
-        <x:v>30386424</x:v>
-      </x:c>
-      <x:c r="G4" s="3">
-        <x:v>27379576</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A5" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B5" s="3">
-        <x:v>32777579</x:v>
-      </x:c>
-      <x:c r="C5" s="3">
-        <x:v>33234136</x:v>
-      </x:c>
-      <x:c r="D5" s="3">
-        <x:v>33798158</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>33453685</x:v>
-      </x:c>
-      <x:c r="F5" s="3">
-        <x:v>32424643</x:v>
-      </x:c>
-      <x:c r="G5" s="3">
-        <x:v>33777763</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A6" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B6" s="3">
-        <x:v>9198423</x:v>
-      </x:c>
-      <x:c r="C6" s="3">
-        <x:v>12275712</x:v>
-      </x:c>
-      <x:c r="D6" s="3">
-        <x:v>14465845</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>18960170</x:v>
-      </x:c>
-      <x:c r="F6" s="3">
-        <x:v>24858610</x:v>
-      </x:c>
-      <x:c r="G6" s="3">
-        <x:v>15505934</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A7" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B7" s="3">
-        <x:v>43481224</x:v>
-      </x:c>
-      <x:c r="C7" s="3">
-        <x:v>44368228</x:v>
-      </x:c>
-      <x:c r="D7" s="3">
-        <x:v>45592914</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>46457102</x:v>
-      </x:c>
-      <x:c r="F7" s="3">
-        <x:v>44178237</x:v>
-      </x:c>
-      <x:c r="G7" s="3">
-        <x:v>46471587</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A8" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B8" s="3">
-        <x:v>16455791</x:v>
-      </x:c>
-      <x:c r="C8" s="3">
-        <x:v>19481461</x:v>
-      </x:c>
-      <x:c r="D8" s="3">
-        <x:v>22237893</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>24406536</x:v>
-      </x:c>
-      <x:c r="F8" s="3">
-        <x:v>25691628</x:v>
-      </x:c>
-      <x:c r="G8" s="3">
-        <x:v>26522549</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A9" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B9" s="3">
-        <x:v>91303768</x:v>
-      </x:c>
-      <x:c r="C9" s="3">
-        <x:v>90137665</x:v>
-      </x:c>
-      <x:c r="D9" s="3">
-        <x:v>94508088</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>101552456</x:v>
-      </x:c>
-      <x:c r="F9" s="3">
-        <x:v>100646290</x:v>
-      </x:c>
-      <x:c r="G9" s="3">
-        <x:v>104259430</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A10" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B10" s="3">
+      <x:c r="B10" s="4">
         <x:v>139282631</x:v>
       </x:c>
-      <x:c r="C10" s="3">
+      <x:c r="C10" s="4">
         <x:v>140897820</x:v>
       </x:c>
-      <x:c r="D10" s="3">
+      <x:c r="D10" s="4">
         <x:v>139120197</x:v>
       </x:c>
-      <x:c r="E10" s="3">
+      <x:c r="E10" s="4">
         <x:v>139884444</x:v>
       </x:c>
-      <x:c r="F10" s="3">
+      <x:c r="F10" s="4">
         <x:v>135393433</x:v>
       </x:c>
-      <x:c r="G10" s="3">
+      <x:c r="G10" s="4">
         <x:v>122122357</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="20" customHeight="1">
-      <x:c r="A11" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B11" s="3">
+      <x:c r="A11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="4">
         <x:v>46788881</x:v>
       </x:c>
-      <x:c r="C11" s="3">
+      <x:c r="C11" s="4">
         <x:v>54046789</x:v>
       </x:c>
-      <x:c r="D11" s="3">
+      <x:c r="D11" s="4">
         <x:v>61240692</x:v>
       </x:c>
-      <x:c r="E11" s="3">
+      <x:c r="E11" s="4">
         <x:v>70322992</x:v>
       </x:c>
-      <x:c r="F11" s="3">
+      <x:c r="F11" s="4">
         <x:v>79582386</x:v>
       </x:c>
-      <x:c r="G11" s="3">
+      <x:c r="G11" s="4">
         <x:v>99180266</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="8:8">
-      <x:c r="H12" t="s">
-        <x:v>0</x:v>
+      <x:c r="H12" s="1" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:A2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1242,92 +1237,92 @@
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
+      <x:c r="A1" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="7" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="B4" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B7" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="7" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="6" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B5" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="6" t="s">
+      <x:c r="B10" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="7" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B6" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="6" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
+      <x:c r="B11" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1">
-      <x:c r="A9" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>